--- a/src/co/jp/part2/UML/中間発表.xlsx
+++ b/src/co/jp/part2/UML/中間発表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzw/Desktop/研修/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzw/Desktop/workplace/IotaJava_G4/src/co/jp/part2/UML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323BDCC2-D0E0-8E45-9CFC-BD1F064E975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9AA95-5BA4-8E45-B40A-3AA69735B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="520" windowWidth="27200" windowHeight="14180" activeTab="1" xr2:uid="{0CED2AD5-812E-D14B-B441-D559B53A4368}"/>
+    <workbookView xWindow="120" yWindow="520" windowWidth="27200" windowHeight="14180" activeTab="1" xr2:uid="{0CED2AD5-812E-D14B-B441-D559B53A4368}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図" sheetId="1" r:id="rId1"/>
